--- a/docs/StructureDefinition-SpaceVehicle.xlsx
+++ b/docs/StructureDefinition-SpaceVehicle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T20:45:50-06:00</t>
+    <t>2025-05-21T00:44:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Vehicles that maintain controled environments or life support systems (ambulances, space craft, submarines, etc)</t>
+    <t>STUB - Vehicles that maintain controled environments or life support systems (ambulances, space craft, submarines, etc)</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-SpaceVehicle.xlsx
+++ b/docs/StructureDefinition-SpaceVehicle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T00:44:32-05:00</t>
+    <t>2025-06-01T17:14:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceVehicle.xlsx
+++ b/docs/StructureDefinition-SpaceVehicle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T17:14:01-05:00</t>
+    <t>2025-06-01T22:56:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceVehicle.xlsx
+++ b/docs/StructureDefinition-SpaceVehicle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceVehicle.xlsx
+++ b/docs/StructureDefinition-SpaceVehicle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -349,7 +349,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -670,7 +670,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>.playingEntity [classCode=PLC].code</t>
@@ -770,7 +770,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -792,7 +792,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -895,7 +895,7 @@
     <t>Location.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -1229,7 +1229,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.4296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="24.01953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-SpaceVehicle.xlsx
+++ b/docs/StructureDefinition-SpaceVehicle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceVehicle.xlsx
+++ b/docs/StructureDefinition-SpaceVehicle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceVehicle.xlsx
+++ b/docs/StructureDefinition-SpaceVehicle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceVehicle.xlsx
+++ b/docs/StructureDefinition-SpaceVehicle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceVehicle.xlsx
+++ b/docs/StructureDefinition-SpaceVehicle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceVehicle.xlsx
+++ b/docs/StructureDefinition-SpaceVehicle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
